--- a/Documentos/LB.xlsx
+++ b/Documentos/LB.xlsx
@@ -140,24 +140,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -252,25 +248,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -280,7 +266,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -292,30 +277,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Buena" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -621,228 +610,228 @@
   <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C3" sqref="C3:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="56.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="21" t="s">
+    <row r="6" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="14"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-      <c r="C10" s="14" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
+    <row r="11" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18" t="s">
+    <row r="12" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="25"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="25"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -851,5 +840,6 @@
     <mergeCell ref="B22:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>